--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B19CD6-FA44-4D41-8225-E125A58ACC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F300AC9-D642-42E1-8AC8-8E33165549A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="3" r:id="rId1"/>
     <sheet name="Monopile" sheetId="1" r:id="rId2"/>
     <sheet name="Blade" sheetId="2" r:id="rId3"/>
+    <sheet name="Export cable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -133,6 +134,24 @@
   </si>
   <si>
     <t>NY</t>
+  </si>
+  <si>
+    <t>km/year</t>
+  </si>
+  <si>
+    <t>Monopile 1</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Export cable 1</t>
+  </si>
+  <si>
+    <t>Export cable 2</t>
+  </si>
+  <si>
+    <t>Export cable 3</t>
   </si>
 </sst>
 </file>
@@ -493,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,6 +554,41 @@
       </c>
       <c r="C3" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>2026</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>2030</v>
       </c>
     </row>
   </sheetData>
@@ -716,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E394EF1B-23F5-4178-BDD5-DE2DF9A8BA3C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -765,7 +819,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -782,6 +836,152 @@
       </c>
       <c r="B6">
         <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000F0EB-6A67-446D-9FE1-E6B7CE544415}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F300AC9-D642-42E1-8AC8-8E33165549A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060AD4A9-5A56-46AC-A294-141160DBABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="3" r:id="rId1"/>
-    <sheet name="Monopile" sheetId="1" r:id="rId2"/>
-    <sheet name="Blade" sheetId="2" r:id="rId3"/>
-    <sheet name="Export cable" sheetId="4" r:id="rId4"/>
+    <sheet name="Blade" sheetId="2" r:id="rId2"/>
+    <sheet name="Nacelle" sheetId="5" r:id="rId3"/>
+    <sheet name="Tower" sheetId="6" r:id="rId4"/>
+    <sheet name="Array cable" sheetId="7" r:id="rId5"/>
+    <sheet name="Export cable" sheetId="4" r:id="rId6"/>
+    <sheet name="Monopile" sheetId="1" r:id="rId7"/>
+    <sheet name="WTIV" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="44">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -127,38 +131,56 @@
     <t>Blade 1</t>
   </si>
   <si>
-    <t>NJ</t>
-  </si>
-  <si>
     <t>Blade 2</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
     <t>km/year</t>
   </si>
   <si>
-    <t>Monopile 1</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
     <t>Export cable 1</t>
   </si>
   <si>
     <t>Export cable 2</t>
   </si>
   <si>
-    <t>Export cable 3</t>
+    <t>nacelles/year</t>
+  </si>
+  <si>
+    <t>Nacelle 1</t>
+  </si>
+  <si>
+    <t>Tower 1</t>
+  </si>
+  <si>
+    <t>towers/year</t>
+  </si>
+  <si>
+    <t>Array cable 1</t>
+  </si>
+  <si>
+    <t>Array cable 2</t>
+  </si>
+  <si>
+    <t>Blade 3</t>
+  </si>
+  <si>
+    <t>WTIV/year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTIV 1 </t>
+  </si>
+  <si>
+    <t>WTIV 2</t>
+  </si>
+  <si>
+    <t>WTIV 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +192,19 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -195,9 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,46 +578,37 @@
       <c r="B2">
         <v>2026</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>2027</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2026</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
-        <v>2029</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -588,7 +616,55 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <v>2030</v>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>2026</v>
       </c>
     </row>
   </sheetData>
@@ -597,181 +673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ACB539-34F9-4F03-9718-22E78997971A}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E394EF1B-23F5-4178-BDD5-DE2DF9A8BA3C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -819,7 +725,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -835,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>520</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -912,12 +818,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000F0EB-6A67-446D-9FE1-E6B7CE544415}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E85467-6043-4D69-B0A9-8F782553D9FF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,11 +848,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="B2" s="2">
+        <v>150</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -965,7 +871,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -981,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1050,6 +956,786 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7784707C-9E6D-44AC-8547-8A58A3185976}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>116</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>225</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A72919-2B5A-4AFC-B28B-5ED69A74E01A}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>800</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000F0EB-6A67-446D-9FE1-E6B7CE544415}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ACB539-34F9-4F03-9718-22E78997971A}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>466</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516E4F7-AB48-42A0-9912-12CC392793F4}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>466</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>14</v>
       </c>
     </row>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060AD4A9-5A56-46AC-A294-141160DBABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD3EE6-607E-440B-91AA-CE1ACFD27338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="28680" yWindow="-1065" windowWidth="29040" windowHeight="15840" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <sheet name="Array cable" sheetId="7" r:id="rId5"/>
     <sheet name="Export cable" sheetId="4" r:id="rId6"/>
     <sheet name="Monopile" sheetId="1" r:id="rId7"/>
-    <sheet name="WTIV" sheetId="8" r:id="rId8"/>
+    <sheet name="Jacket" sheetId="9" r:id="rId8"/>
+    <sheet name="Semisubmersible" sheetId="11" r:id="rId9"/>
+    <sheet name="Offshore substation" sheetId="10" r:id="rId10"/>
+    <sheet name="WTIV" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="51">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -174,13 +177,34 @@
   </si>
   <si>
     <t>WTIV 3</t>
+  </si>
+  <si>
+    <t>jackets/year</t>
+  </si>
+  <si>
+    <t>Jacket 1</t>
+  </si>
+  <si>
+    <t>substation/year</t>
+  </si>
+  <si>
+    <t>semisubs/year</t>
+  </si>
+  <si>
+    <t>Semisubmersible 1</t>
+  </si>
+  <si>
+    <t>Semisubmersible 3</t>
+  </si>
+  <si>
+    <t>Semisubmersible 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +229,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -549,15 +579,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -665,6 +695,383 @@
       </c>
       <c r="B13">
         <v>2026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>2030</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B0B918-E104-4E21-9FCD-E0D518BA7C95}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>7.1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>2.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>4.7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f>100-SUM(B14:B16)-B18</f>
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>11.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516E4F7-AB48-42A0-9912-12CC392793F4}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>466</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1407,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ACB539-34F9-4F03-9718-22E78997971A}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1574,18 +1981,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516E4F7-AB48-42A0-9912-12CC392793F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8413F004-DA56-47B2-9CA5-F34D53B4E73F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -1604,10 +2010,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1615,7 +2021,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1667,7 +2073,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
@@ -1678,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1689,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>7.1</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1700,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>2.4</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1711,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>4.7</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1722,7 +2128,8 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <f>100-SUM(B14:B16)-B18</f>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1733,7 +2140,160 @@
         <v>19</v>
       </c>
       <c r="B18">
+        <v>11.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA885459-4D29-4DEE-9AD2-5F444EBA6123}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD3EE6-607E-440B-91AA-CE1ACFD27338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753D1AC-E69C-4BE9-B909-6216A40DA257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1065" windowWidth="29040" windowHeight="15840" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Semisubmersible" sheetId="11" r:id="rId9"/>
     <sheet name="Offshore substation" sheetId="10" r:id="rId10"/>
     <sheet name="WTIV" sheetId="8" r:id="rId11"/>
+    <sheet name="Steel plate" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="53">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -198,6 +199,12 @@
   </si>
   <si>
     <t>Semisubmersible 2</t>
+  </si>
+  <si>
+    <t>MT/year</t>
+  </si>
+  <si>
+    <t>Steel plate 1</t>
   </si>
 </sst>
 </file>
@@ -579,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,6 +734,14 @@
       </c>
       <c r="B17">
         <v>2030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>2028</v>
       </c>
     </row>
   </sheetData>
@@ -1079,6 +1094,177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3BDA63-043F-4F6F-AF7D-07E7E696E20C}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>120000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>600</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E394EF1B-23F5-4178-BDD5-DE2DF9A8BA3C}">
   <dimension ref="A1:C12"/>
@@ -1815,7 +2001,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8753D1AC-E69C-4BE9-B909-6216A40DA257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D700583D-D877-4A3C-BF37-14A2D6F717ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="3" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="60">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -205,6 +205,27 @@
   </si>
   <si>
     <t>Steel plate 1</t>
+  </si>
+  <si>
+    <t>Notes and assumptions</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Keppel Amfels (Begin construction right after Charybdis)</t>
+  </si>
+  <si>
+    <t>Philly shipyard (Clear order books in 2025)</t>
+  </si>
+  <si>
+    <t>VT Halter (Clear order books in 2025)</t>
   </si>
 </sst>
 </file>
@@ -586,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -597,7 +618,7 @@
     <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -607,8 +628,11 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -616,7 +640,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -624,7 +648,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -632,7 +656,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -640,7 +664,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -648,7 +672,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -656,7 +680,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -664,7 +688,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -672,7 +696,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -680,31 +704,49 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
       <c r="B11">
         <v>2026</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
       <c r="B12">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2028</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2028</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -712,7 +754,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -720,7 +762,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1098,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3BDA63-043F-4F6F-AF7D-07E7E696E20C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D700583D-D877-4A3C-BF37-14A2D6F717ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E159DA2-3C5B-448F-ACE0-241886607C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
@@ -20,11 +20,12 @@
     <sheet name="Array cable" sheetId="7" r:id="rId5"/>
     <sheet name="Export cable" sheetId="4" r:id="rId6"/>
     <sheet name="Monopile" sheetId="1" r:id="rId7"/>
-    <sheet name="Jacket" sheetId="9" r:id="rId8"/>
-    <sheet name="Semisubmersible" sheetId="11" r:id="rId9"/>
-    <sheet name="Offshore substation" sheetId="10" r:id="rId10"/>
-    <sheet name="WTIV" sheetId="8" r:id="rId11"/>
-    <sheet name="Steel plate" sheetId="12" r:id="rId12"/>
+    <sheet name="Transition piece" sheetId="13" r:id="rId8"/>
+    <sheet name="Jacket" sheetId="9" r:id="rId9"/>
+    <sheet name="Semisubmersible" sheetId="11" r:id="rId10"/>
+    <sheet name="Offshore substation" sheetId="10" r:id="rId11"/>
+    <sheet name="WTIV" sheetId="8" r:id="rId12"/>
+    <sheet name="Steel plate" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="61">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -226,6 +227,9 @@
   </si>
   <si>
     <t>VT Halter (Clear order books in 2025)</t>
+  </si>
+  <si>
+    <t>Transition piece 1</t>
   </si>
 </sst>
 </file>
@@ -607,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -786,6 +790,14 @@
         <v>2028</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -793,6 +805,159 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA885459-4D29-4DEE-9AD2-5F444EBA6123}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B0B918-E104-4E21-9FCD-E0D518BA7C95}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -965,7 +1130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516E4F7-AB48-42A0-9912-12CC392793F4}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1136,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3BDA63-043F-4F6F-AF7D-07E7E696E20C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2043,7 +2208,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2079,7 +2244,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -2209,6 +2374,177 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B190784-80A5-46FF-B5D5-B70F3B4F7CDA}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8413F004-DA56-47B2-9CA5-F34D53B4E73F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2377,157 +2713,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA885459-4D29-4DEE-9AD2-5F444EBA6123}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E159DA2-3C5B-448F-ACE0-241886607C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2971DB-8804-4BE3-98CB-A63F24714CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>Array cable 1</t>
   </si>
   <si>
-    <t>Array cable 2</t>
-  </si>
-  <si>
     <t>Blade 3</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Transition piece 1</t>
+  </si>
+  <si>
+    <t>Tower 2</t>
   </si>
 </sst>
 </file>
@@ -614,7 +614,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,7 +633,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -654,7 +654,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>2026</v>
@@ -678,15 +678,15 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B7">
-        <v>2028</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>2028</v>
@@ -710,49 +710,49 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>2026</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>2028</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>2028</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>2024</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>2028</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>2029</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>2030</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>2028</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>2025</v>
@@ -838,7 +838,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1335,7 +1335,7 @@
         <v>120000</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2577,7 +2577,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2971DB-8804-4BE3-98CB-A63F24714CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57B98A-C3D2-4361-89CE-DFFA1E8CE626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="3" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -2061,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000F0EB-6A67-446D-9FE1-E6B7CE544415}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57B98A-C3D2-4361-89CE-DFFA1E8CE626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344401F2-51FB-40F3-86F0-EEF34728BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,11 @@
     <sheet name="Offshore substation" sheetId="10" r:id="rId11"/>
     <sheet name="WTIV" sheetId="8" r:id="rId12"/>
     <sheet name="Steel plate" sheetId="12" r:id="rId13"/>
+    <sheet name="Flange" sheetId="14" r:id="rId14"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="66">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -169,9 +173,6 @@
     <t>WTIV/year</t>
   </si>
   <si>
-    <t xml:space="preserve">WTIV 1 </t>
-  </si>
-  <si>
     <t>WTIV 2</t>
   </si>
   <si>
@@ -190,15 +191,6 @@
     <t>semisubs/year</t>
   </si>
   <si>
-    <t>Semisubmersible 1</t>
-  </si>
-  <si>
-    <t>Semisubmersible 3</t>
-  </si>
-  <si>
-    <t>Semisubmersible 2</t>
-  </si>
-  <si>
     <t>MT/year</t>
   </si>
   <si>
@@ -211,31 +203,61 @@
     <t>TX</t>
   </si>
   <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Keppel Amfels (Begin construction right after Charybdis)</t>
-  </si>
-  <si>
-    <t>Philly shipyard (Clear order books in 2025)</t>
-  </si>
-  <si>
-    <t>VT Halter (Clear order books in 2025)</t>
-  </si>
-  <si>
     <t>Transition piece 1</t>
   </si>
   <si>
     <t>Tower 2</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Array cable 2</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>WTIV 1</t>
+  </si>
+  <si>
+    <t>Flange 1</t>
+  </si>
+  <si>
+    <t>#/year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,11 +314,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,6 +335,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Blades"/>
+      <sheetName val="Nacelles"/>
+      <sheetName val="Tower"/>
+      <sheetName val="Generator"/>
+      <sheetName val="Gearbox"/>
+      <sheetName val="Monopiles"/>
+      <sheetName val="Jackets"/>
+      <sheetName val="Semisubmersible"/>
+      <sheetName val="Transition piece"/>
+      <sheetName val="Offshore substation"/>
+      <sheetName val="Cables"/>
+      <sheetName val="Mooring chain"/>
+      <sheetName val="Mooring rope"/>
+      <sheetName val="Anchors"/>
+      <sheetName val="Suction caisson"/>
+      <sheetName val="Bearings"/>
+      <sheetName val="Flanges"/>
+      <sheetName val="Hubs"/>
+      <sheetName val="Bedplates"/>
+      <sheetName val="Steel plates"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1">
+        <row r="44">
+          <cell r="S44">
+            <v>1</v>
+          </cell>
+          <cell r="BK44">
+            <v>200</v>
+          </cell>
+          <cell r="BL44">
+            <v>0.05</v>
+          </cell>
+          <cell r="BM44">
+            <v>0.05</v>
+          </cell>
+          <cell r="BN44">
+            <v>0.05</v>
+          </cell>
+          <cell r="BO44">
+            <v>0.75</v>
+          </cell>
+          <cell r="BP44">
+            <v>0.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,29 +709,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>52</v>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -641,7 +740,10 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>2026</v>
+        <v>2028</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -649,7 +751,10 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>2026</v>
+        <v>2028</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -657,7 +762,10 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>2026</v>
+        <v>2028</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -665,7 +773,10 @@
         <v>34</v>
       </c>
       <c r="B5">
-        <v>2025</v>
+        <v>2028</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -673,15 +784,21 @@
         <v>35</v>
       </c>
       <c r="B6">
-        <v>2025</v>
+        <v>2027</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>2025</v>
+        <v>2027</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -689,118 +806,117 @@
         <v>37</v>
       </c>
       <c r="B8">
-        <v>2028</v>
+        <v>2029</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>2028</v>
+        <v>2029</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>2028</v>
+        <v>2029</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B11">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B14">
-        <v>2024</v>
+        <v>2025</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B15">
-        <v>2028</v>
+        <v>2026</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>2029</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="B16">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19">
-        <v>2025</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -838,7 +954,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -991,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1306,7 +1422,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1335,7 +1451,7 @@
         <v>120000</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1462,6 +1578,181 @@
       </c>
       <c r="B18">
         <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF6D9F9-42CE-4C05-817C-410AD5AB0AEA}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>[1]Flanges!$BK$44</f>
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <f>[1]Flanges!$BL$44</f>
+        <v>0.05</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <f>[1]Flanges!$BM$44</f>
+        <v>0.05</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <f>[1]Flanges!$BN$44</f>
+        <v>0.05</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4">
+        <f>[1]Flanges!$BO$44</f>
+        <v>0.75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <f>[1]Flanges!$BP$44</f>
+        <v>0.1</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1477,7 +1768,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1623,7 +1914,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1649,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>33</v>
@@ -2061,7 +2352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000F0EB-6A67-446D-9FE1-E6B7CE544415}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2577,7 +2868,7 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,30 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344401F2-51FB-40F3-86F0-EEF34728BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7B43F-F1D1-4DA0-A400-354C8F6810DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Avg Demand Scenario" sheetId="3" r:id="rId1"/>
-    <sheet name="Blade" sheetId="2" r:id="rId2"/>
-    <sheet name="Nacelle" sheetId="5" r:id="rId3"/>
-    <sheet name="Tower" sheetId="6" r:id="rId4"/>
-    <sheet name="Array cable" sheetId="7" r:id="rId5"/>
-    <sheet name="Export cable" sheetId="4" r:id="rId6"/>
-    <sheet name="Monopile" sheetId="1" r:id="rId7"/>
-    <sheet name="Transition piece" sheetId="13" r:id="rId8"/>
-    <sheet name="Jacket" sheetId="9" r:id="rId9"/>
-    <sheet name="Semisubmersible" sheetId="11" r:id="rId10"/>
-    <sheet name="Offshore substation" sheetId="10" r:id="rId11"/>
-    <sheet name="WTIV" sheetId="8" r:id="rId12"/>
-    <sheet name="Steel plate" sheetId="12" r:id="rId13"/>
-    <sheet name="Flange" sheetId="14" r:id="rId14"/>
+    <sheet name="Mooring chain" sheetId="15" r:id="rId2"/>
+    <sheet name="Mooring rope" sheetId="16" r:id="rId3"/>
+    <sheet name="Blade" sheetId="2" r:id="rId4"/>
+    <sheet name="Nacelle" sheetId="5" r:id="rId5"/>
+    <sheet name="Tower" sheetId="6" r:id="rId6"/>
+    <sheet name="Array cable" sheetId="7" r:id="rId7"/>
+    <sheet name="Export cable" sheetId="4" r:id="rId8"/>
+    <sheet name="Monopile" sheetId="1" r:id="rId9"/>
+    <sheet name="Transition piece" sheetId="13" r:id="rId10"/>
+    <sheet name="Jacket" sheetId="9" r:id="rId11"/>
+    <sheet name="Semisubmersible" sheetId="11" r:id="rId12"/>
+    <sheet name="GBF" sheetId="17" r:id="rId13"/>
+    <sheet name="Offshore substation" sheetId="10" r:id="rId14"/>
+    <sheet name="WTIV" sheetId="8" r:id="rId15"/>
+    <sheet name="Steel plate" sheetId="12" r:id="rId16"/>
+    <sheet name="Flange" sheetId="14" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="79">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -249,6 +253,45 @@
   </si>
   <si>
     <t>#/year</t>
+  </si>
+  <si>
+    <t>Blade 4</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Nacelle 2</t>
+  </si>
+  <si>
+    <t>Tower 3</t>
+  </si>
+  <si>
+    <t>Mooring chain 1</t>
+  </si>
+  <si>
+    <t>Mooring rope 1</t>
+  </si>
+  <si>
+    <t>(excluding port development costs)</t>
+  </si>
+  <si>
+    <t>(from announcement to full operational status)</t>
+  </si>
+  <si>
+    <t>Semisubmersible 1</t>
+  </si>
+  <si>
+    <t>GBF/year</t>
+  </si>
+  <si>
+    <t>Equipment and some facility upgrades</t>
+  </si>
+  <si>
+    <t>Rough average of RCAM and Esteyco</t>
+  </si>
+  <si>
+    <t>GBF 1</t>
   </si>
 </sst>
 </file>
@@ -374,7 +417,40 @@
       <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1">
+        <row r="44">
+          <cell r="S44">
+            <v>1</v>
+          </cell>
+          <cell r="AW44">
+            <v>2000</v>
+          </cell>
+          <cell r="AX44">
+            <v>50</v>
+          </cell>
+          <cell r="AY44">
+            <v>2</v>
+          </cell>
+          <cell r="BK44">
+            <v>100</v>
+          </cell>
+          <cell r="BL44">
+            <v>0.05</v>
+          </cell>
+          <cell r="BM44">
+            <v>0.1</v>
+          </cell>
+          <cell r="BN44">
+            <v>0.05</v>
+          </cell>
+          <cell r="BO44">
+            <v>0.75</v>
+          </cell>
+          <cell r="BP44">
+            <v>0.05</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14" refreshError="1"/>
@@ -709,19 +785,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF66AA12-E0D8-42F1-83CD-A592BFF5EB2C}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -735,7 +811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -746,7 +822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -757,7 +833,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -768,7 +844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -779,7 +855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -790,7 +866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -801,7 +877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -812,7 +888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -823,7 +899,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -834,7 +910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -845,7 +921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -856,61 +932,138 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2029</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2025</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2026</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>2028</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>2029</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>64</v>
+      </c>
+      <c r="B19">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>2030</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>2030</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>2030</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>2030</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>2030</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>2030</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -921,6 +1074,348 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B190784-80A5-46FF-B5D5-B70F3B4F7CDA}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8413F004-DA56-47B2-9CA5-F34D53B4E73F}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>425</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>7.1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>2.4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>4.7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f>100-SUM(B14:B16)-B18</f>
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>11.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA885459-4D29-4DEE-9AD2-5F444EBA6123}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -928,14 +1423,14 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,7 +1441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -957,7 +1452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -968,7 +1463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -979,37 +1474,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1036,7 +1531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1060,7 +1555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1568,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7839A3-CCAE-465E-BDC4-042D07C23AB8}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>350</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B0B918-E104-4E21-9FCD-E0D518BA7C95}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1081,14 +1687,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1132,37 +1738,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1184,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1206,7 +1812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1217,7 +1823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516E4F7-AB48-42A0-9912-12CC392793F4}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1254,14 +1860,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1283,7 +1889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1294,7 +1900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1305,37 +1911,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1346,7 +1952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1357,7 +1963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1390,7 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1401,7 +2007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1417,7 +2023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3BDA63-043F-4F6F-AF7D-07E7E696E20C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1425,14 +2031,14 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +2049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1454,7 +2060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1465,7 +2071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1476,37 +2082,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +2123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1528,7 +2134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1539,7 +2145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1550,7 +2156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1561,7 +2167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1572,7 +2178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +2194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF6D9F9-42CE-4C05-817C-410AD5AB0AEA}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1596,14 +2202,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +2220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +2231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +2242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1647,37 +2253,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1689,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1698,7 +2304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +2316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1722,7 +2328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +2340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1746,7 +2352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1764,21 +2370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E394EF1B-23F5-4178-BDD5-DE2DF9A8BA3C}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CE2D8A-502E-40E6-83C7-E6FA45CCA6CC}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1789,116 +2390,129 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>275</v>
+        <f>'[1]Mooring chain'!$AW$44</f>
+        <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <f>'[1]Mooring chain'!$AX$44</f>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>3.5</v>
+        <f>'[1]Mooring chain'!$AY$44</f>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>520</v>
+        <f>'[1]Mooring chain'!$BK$44</f>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
+      <c r="B7" s="4"/>
       <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>20</v>
+      <c r="B8" s="4">
+        <f>'[1]Mooring chain'!$BL$44</f>
+        <v>0.05</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>15</v>
+      <c r="B9" s="4">
+        <f>'[1]Mooring chain'!$BM$44</f>
+        <v>0.1</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>20</v>
+      <c r="B10" s="4">
+        <f>'[1]Mooring chain'!$BN$44</f>
+        <v>0.05</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>30</v>
+      <c r="B11" s="4">
+        <f>'[1]Mooring chain'!$BO$44</f>
+        <v>0.75</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" s="4">
+        <f>'[1]Mooring chain'!$BP$44</f>
+        <v>0.05</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1910,6 +2524,306 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB031929-1311-4696-8843-DEF1936FC85F}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>'[1]Mooring chain'!$AW$44</f>
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f>'[1]Mooring chain'!$AX$44</f>
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <f>'[1]Mooring chain'!$AY$44</f>
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <f>'[1]Mooring chain'!$BK$44</f>
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'[1]Mooring chain'!$BL$44</f>
+        <v>0.05</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <f>'[1]Mooring chain'!$BM$44</f>
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'[1]Mooring chain'!$BN$44</f>
+        <v>0.05</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <f>'[1]Mooring chain'!$BO$44</f>
+        <v>0.75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <f>'[1]Mooring chain'!$BP$44</f>
+        <v>0.05</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E394EF1B-23F5-4178-BDD5-DE2DF9A8BA3C}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>520</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E85467-6043-4D69-B0A9-8F782553D9FF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -1917,14 +2831,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +2849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1946,7 +2860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1957,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1968,12 +2882,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1984,7 +2898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1995,7 +2909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2006,7 +2920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2017,7 +2931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +2942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2039,7 +2953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2056,7 +2970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7784707C-9E6D-44AC-8547-8A58A3185976}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2064,14 +2978,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +3007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2104,7 +3018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2115,12 +3029,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2131,7 +3045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2142,7 +3056,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +3067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +3078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2175,7 +3089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2186,7 +3100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2202,7 +3116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A72919-2B5A-4AFC-B28B-5ED69A74E01A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2210,14 +3124,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2228,7 +3142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +3153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2250,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2261,12 +3175,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2277,7 +3191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2288,7 +3202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +3213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2310,7 +3224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2321,7 +3235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2332,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2348,7 +3262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7000F0EB-6A67-446D-9FE1-E6B7CE544415}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -2356,14 +3270,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2374,7 +3288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2385,7 +3299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2396,7 +3310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2407,12 +3321,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +3337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +3348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2445,7 +3359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2456,7 +3370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2467,7 +3381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2478,7 +3392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +3408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06ACB539-34F9-4F03-9718-22E78997971A}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -2502,13 +3416,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +3433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2530,7 +3444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2541,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2552,37 +3466,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2593,7 +3507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2604,7 +3518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2615,7 +3529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2626,7 +3540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2637,7 +3551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2648,354 +3562,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B190784-80A5-46FF-B5D5-B70F3B4F7CDA}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>2.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8413F004-DA56-47B2-9CA5-F34D53B4E73F}">
-  <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="53.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>3.5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>425</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>7.1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>2.4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>4.7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <f>100-SUM(B14:B16)-B18</f>
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>11.8</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AF17A4-DD56-468A-9891-DD3EF8E3B0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A8CA6-D12D-4BC3-AE98-CE042C0E3054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="16" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mooring chain" sheetId="15" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="WTIV" sheetId="8" r:id="rId14"/>
     <sheet name="Steel plate" sheetId="12" r:id="rId15"/>
     <sheet name="Flange" sheetId="14" r:id="rId16"/>
+    <sheet name="Casting" sheetId="18" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="40">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -170,6 +171,9 @@
   </si>
   <si>
     <t>Rough average of RCAM and Esteyco</t>
+  </si>
+  <si>
+    <t>castings/year</t>
   </si>
 </sst>
 </file>
@@ -659,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CE2D8A-502E-40E6-83C7-E6FA45CCA6CC}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1619,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>120000</v>
+        <v>1000000</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -1641,7 +1645,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1764,7 +1768,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,6 +1931,106 @@
       </c>
       <c r="C18" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A1BC71-6BE1-41C1-B74A-1B06B183FFB4}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2993,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B190784-80A5-46FF-B5D5-B70F3B4F7CDA}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954A8CA6-D12D-4BC3-AE98-CE042C0E3054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6ECA1-F6C7-4720-9AD2-386816CF1022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="16" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="16" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mooring chain" sheetId="15" r:id="rId1"/>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA885459-4D29-4DEE-9AD2-5F444EBA6123}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1032,48 +1032,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1083,12 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>50*100000/2000</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1092,7 +1096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1943,7 +1947,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA6ECA1-F6C7-4720-9AD2-386816CF1022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F240E0D-ADA4-4351-BA20-373BB965269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="16" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView minimized="1" xWindow="2960" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mooring chain" sheetId="15" r:id="rId1"/>
@@ -21,18 +21,20 @@
     <sheet name="Array cable" sheetId="7" r:id="rId6"/>
     <sheet name="Export cable" sheetId="4" r:id="rId7"/>
     <sheet name="Monopile" sheetId="1" r:id="rId8"/>
-    <sheet name="Transition piece" sheetId="13" r:id="rId9"/>
-    <sheet name="Jacket" sheetId="9" r:id="rId10"/>
-    <sheet name="Semisubmersible" sheetId="11" r:id="rId11"/>
-    <sheet name="GBF" sheetId="17" r:id="rId12"/>
-    <sheet name="Offshore substation" sheetId="10" r:id="rId13"/>
-    <sheet name="WTIV" sheetId="8" r:id="rId14"/>
-    <sheet name="Steel plate" sheetId="12" r:id="rId15"/>
-    <sheet name="Flange" sheetId="14" r:id="rId16"/>
-    <sheet name="Casting" sheetId="18" r:id="rId17"/>
+    <sheet name="Marshaling port" sheetId="20" r:id="rId9"/>
+    <sheet name="Fabrication port" sheetId="19" r:id="rId10"/>
+    <sheet name="Transition piece" sheetId="13" r:id="rId11"/>
+    <sheet name="Jacket" sheetId="9" r:id="rId12"/>
+    <sheet name="Semisubmersible" sheetId="11" r:id="rId13"/>
+    <sheet name="GBF" sheetId="17" r:id="rId14"/>
+    <sheet name="Offshore substation" sheetId="10" r:id="rId15"/>
+    <sheet name="WTIV" sheetId="8" r:id="rId16"/>
+    <sheet name="Steel plate" sheetId="12" r:id="rId17"/>
+    <sheet name="Flange" sheetId="14" r:id="rId18"/>
+    <sheet name="Casting" sheetId="18" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="40">
   <si>
     <t>Factory specifications</t>
   </si>
@@ -667,9 +669,9 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -692,7 +694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -707,7 +709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -722,12 +724,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -739,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -748,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -760,7 +762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -772,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -784,7 +786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -796,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -814,6 +816,236 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E87A5D2-4824-47CE-A508-AAEF5CBD7712}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B190784-80A5-46FF-B5D5-B70F3B4F7CDA}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8413F004-DA56-47B2-9CA5-F34D53B4E73F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -821,13 +1053,13 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +1070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -849,7 +1081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -860,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -871,37 +1103,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -912,7 +1144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -923,7 +1155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -934,7 +1166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -945,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -956,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -968,7 +1200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -984,7 +1216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA885459-4D29-4DEE-9AD2-5F444EBA6123}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -992,14 +1224,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1242,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1021,7 +1253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1032,7 +1264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1043,37 +1275,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1320,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1096,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1104,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1141,7 +1373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7839A3-CCAE-465E-BDC4-042D07C23AB8}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1149,14 +1381,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1192,7 +1424,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1203,37 +1435,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B0B918-E104-4E21-9FCD-E0D518BA7C95}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1260,14 +1492,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +1510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1289,7 +1521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1300,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1311,37 +1543,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1352,7 +1584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1363,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +1606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1425,7 +1657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2516E4F7-AB48-42A0-9912-12CC392793F4}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1433,14 +1665,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1462,7 +1694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1484,37 +1716,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1525,7 +1757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1536,7 +1768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1779,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1558,7 +1790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1596,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3BDA63-043F-4F6F-AF7D-07E7E696E20C}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1604,14 +1836,14 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1644,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1655,37 +1887,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1696,7 +1928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1718,7 +1950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +1972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1751,7 +1983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1767,7 +1999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF6D9F9-42CE-4C05-817C-410AD5AB0AEA}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -1775,14 +2007,14 @@
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +2025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1804,7 +2036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +2047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1826,37 +2058,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +2100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1877,7 +2109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1889,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1901,7 +2133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +2145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1925,7 +2157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1942,17 +2174,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A1BC71-6BE1-41C1-B74A-1B06B183FFB4}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +2195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +2206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1985,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1996,37 +2228,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2050,9 +2282,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2075,7 +2307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2090,7 +2322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2105,12 +2337,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +2363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2167,7 +2399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2179,7 +2411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2204,14 +2436,14 @@
       <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2454,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2244,7 +2476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2255,12 +2487,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2271,7 +2503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2282,7 +2514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2304,7 +2536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2315,7 +2547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2326,7 +2558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2346,18 +2578,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E85467-6043-4D69-B0A9-8F782553D9FF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2368,7 +2600,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2379,7 +2611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2390,7 +2622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2401,12 +2633,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2417,7 +2649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2428,7 +2660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2439,7 +2671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2450,7 +2682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2461,7 +2693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2472,7 +2704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2497,14 +2729,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2515,7 +2747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2537,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2548,12 +2780,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2564,7 +2796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2575,7 +2807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2586,7 +2818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2597,7 +2829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2608,7 +2840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2619,7 +2851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2643,14 +2875,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +2893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2672,7 +2904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2683,7 +2915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2694,12 +2926,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2710,7 +2942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2721,7 +2953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2732,7 +2964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2743,7 +2975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2754,7 +2986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2765,7 +2997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2789,14 +3021,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +3039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2818,7 +3050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2829,7 +3061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2840,12 +3072,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2856,7 +3088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2867,7 +3099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2878,7 +3110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2889,7 +3121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2900,7 +3132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2911,7 +3143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2932,16 +3164,16 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2952,18 +3184,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2974,7 +3206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2985,37 +3217,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3026,7 +3258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +3269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -3048,7 +3280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3059,7 +3291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3070,7 +3302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3081,7 +3313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3098,21 +3330,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B190784-80A5-46FF-B5D5-B70F3B4F7CDA}">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F945B13B-0516-43DF-8768-423C137ED65F}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3123,144 +3353,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/library/Generic_facilities.xlsx
+++ b/library/Generic_facilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F240E0D-ADA4-4351-BA20-373BB965269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5213601-BDE4-4249-8987-E753DD471D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2960" yWindow="2840" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="11" xr2:uid="{6E624DB9-F13A-4642-BD3E-921B94A6B6A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mooring chain" sheetId="15" r:id="rId1"/>
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8413F004-DA56-47B2-9CA5-F34D53B4E73F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1086,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1097,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2578,7 +2578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E85467-6043-4D69-B0A9-8F782553D9FF}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
